--- a/CameraTriggerR2PCB/CameraTriggerR2MouserBOM.xlsx
+++ b/CameraTriggerR2PCB/CameraTriggerR2MouserBOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="154">
   <si>
     <t>Reference</t>
   </si>
@@ -328,9 +328,6 @@
     <t>Adafruit</t>
   </si>
   <si>
-    <t xml:space="preserve">485-2830 </t>
-  </si>
-  <si>
     <t>633-AS11BH</t>
   </si>
   <si>
@@ -433,12 +430,6 @@
     <t>MF1/4LCT52R510G</t>
   </si>
   <si>
-    <t>MF1/2DCT52R1502F</t>
-  </si>
-  <si>
-    <t>660-MF1/2DCT52R1502F</t>
-  </si>
-  <si>
     <t>HLMP-K150</t>
   </si>
   <si>
@@ -470,6 +461,21 @@
   </si>
   <si>
     <t>78-TLHK46Q1R2</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">485-2886 </t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-14K7</t>
+  </si>
+  <si>
+    <t>HLMP-LG71-XZ0DD</t>
   </si>
 </sst>
 </file>
@@ -1297,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1406,16 +1412,16 @@
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" t="s">
         <v>117</v>
-      </c>
-      <c r="E5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" t="s">
-        <v>118</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
@@ -1429,16 +1435,16 @@
         <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
@@ -1446,162 +1452,150 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
         <v>112</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>114</v>
-      </c>
-      <c r="F7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D10">
-        <v>2830</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D11">
+        <v>2886</v>
+      </c>
+      <c r="E11" t="s">
         <v>103</v>
       </c>
-      <c r="F10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D12" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
       </c>
       <c r="E12" t="s">
         <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
         <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
@@ -1609,22 +1603,22 @@
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
         <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
@@ -1632,22 +1626,22 @@
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
         <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
@@ -1655,33 +1649,33 @@
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
         <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -1699,32 +1693,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>49</v>
@@ -1747,7 +1741,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>49</v>
@@ -1768,35 +1762,35 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
@@ -1816,81 +1810,84 @@
     </row>
     <row r="24" spans="1:7" ht="30">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
         <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="30">
       <c r="A25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="2">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="2">
         <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="2">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
         <v>87</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>90</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B28" s="2">
         <v>51</v>
@@ -1899,87 +1896,78 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
         <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="B29" s="2">
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
         <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" t="s">
         <v>91</v>
       </c>
-      <c r="F30" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F31" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>17</v>
@@ -1999,10 +1987,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
@@ -2022,68 +2010,68 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" t="s">
         <v>127</v>
-      </c>
-      <c r="E36" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" t="s">
-        <v>128</v>
       </c>
       <c r="G36" t="s">
         <v>25</v>
@@ -2091,39 +2079,62 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37">
+        <v>126</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38">
         <v>3178</v>
-      </c>
-      <c r="E37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30">
-      <c r="A38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38">
-        <v>2633</v>
       </c>
       <c r="E38" t="s">
         <v>103</v>
       </c>
       <c r="F38" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39" t="s">
         <v>124</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39">
+        <v>2633</v>
+      </c>
+      <c r="E39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/CameraTriggerR2PCB/CameraTriggerR2MouserBOM.xlsx
+++ b/CameraTriggerR2PCB/CameraTriggerR2MouserBOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="158">
   <si>
     <t>Reference</t>
   </si>
@@ -476,6 +476,18 @@
   </si>
   <si>
     <t>HLMP-LG71-XZ0DD</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>5V on</t>
+  </si>
+  <si>
+    <t>Pwr sw</t>
   </si>
 </sst>
 </file>
@@ -1303,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1557,33 +1569,30 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -1597,39 +1606,36 @@
       <c r="F14" t="s">
         <v>76</v>
       </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
@@ -1649,10 +1655,10 @@
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1672,10 +1678,10 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -1690,81 +1696,81 @@
         <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
         <v>73</v>
       </c>
       <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
         <v>76</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="30">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>49</v>
@@ -1785,235 +1791,235 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
         <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="2">
-        <v>220</v>
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
         <v>87</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="2">
-        <v>51</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="2">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
         <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>90</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="B30" s="2">
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="2">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>105</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>91</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F33" t="s">
         <v>104</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G33" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>17</v>
@@ -2033,107 +2039,153 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <v>3178</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>103</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F40" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30">
-      <c r="A39" t="s">
+    <row r="41" spans="1:7" ht="30">
+      <c r="A41" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <v>2633</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
         <v>103</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F41" t="s">
         <v>130</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G41" t="s">
         <v>123</v>
       </c>
     </row>

--- a/CameraTriggerR2PCB/CameraTriggerR2MouserBOM.xlsx
+++ b/CameraTriggerR2PCB/CameraTriggerR2MouserBOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="164">
   <si>
     <t>Reference</t>
   </si>
@@ -488,6 +488,24 @@
   </si>
   <si>
     <t>Pwr sw</t>
+  </si>
+  <si>
+    <t>S103M47Z5UN63J7R</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>0.01 uf</t>
+  </si>
+  <si>
+    <t>594-S103M47Z5UN63J7R</t>
+  </si>
+  <si>
+    <t>Capacitor_THT:C_Disc_D7.5mm_W2.5mm_P5.00mm</t>
   </si>
 </sst>
 </file>
@@ -1315,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2189,6 +2207,46 @@
         <v>123</v>
       </c>
     </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CameraTriggerR2PCB/CameraTriggerR2MouserBOM.xlsx
+++ b/CameraTriggerR2PCB/CameraTriggerR2MouserBOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="166">
   <si>
     <t>Reference</t>
   </si>
@@ -289,223 +289,229 @@
     <t>660-MF1/4DCT26A1001F</t>
   </si>
   <si>
+    <t xml:space="preserve">LM7805CT </t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>926-LM7805CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-ESL107M016AC3AA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESL107M016AC3AA </t>
+  </si>
+  <si>
+    <t>kmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESL106M100AE3AA </t>
+  </si>
+  <si>
+    <t>kimet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-ESL106M100AE3AA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">610-PN2222A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Semiconductor </t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>Feather M0</t>
+  </si>
+  <si>
+    <t>490-SJ1-2503A</t>
+  </si>
+  <si>
+    <t>SJ1-2503A</t>
+  </si>
+  <si>
+    <t>2.5 mm Camera Jack</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBR10U45SD1-T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">621-SBR10U45SD1-T </t>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+  </si>
+  <si>
+    <t>DO-201AD-2</t>
+  </si>
+  <si>
+    <t>Avago</t>
+  </si>
+  <si>
+    <t>HLMP-1790</t>
+  </si>
+  <si>
+    <t>630-HLMP-1790</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>Adafruit Bluefruit LE SPI Friend - Bluetooth Low Energy (BLE)</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x09_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>ILD74</t>
+  </si>
+  <si>
+    <t>782-ILD74</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>485-3178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">485-2633 </t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>15K</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>660-MF1/4LCT52R510G</t>
+  </si>
+  <si>
+    <t>MF1/4LCT52R510G</t>
+  </si>
+  <si>
+    <t>HLMP-K150</t>
+  </si>
+  <si>
+    <t>630-HLMP-K150</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>amass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XT30U-M </t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/3cbfa5cfa544d79584972dd5234a409e/XT30U%20SPEC.pdf</t>
+  </si>
+  <si>
+    <t>TLHK46Q1R2</t>
+  </si>
+  <si>
+    <t>78-TLHK46Q1R2</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">485-2886 </t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-14K7</t>
+  </si>
+  <si>
+    <t>HLMP-LG71-XZ0DD</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>5V on</t>
+  </si>
+  <si>
+    <t>Pwr sw</t>
+  </si>
+  <si>
+    <t>S103M47Z5UN63J7R</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>0.01 uf</t>
+  </si>
+  <si>
+    <t>594-S103M47Z5UN63J7R</t>
+  </si>
+  <si>
+    <t>Capacitor_THT:C_Disc_D7.5mm_W2.5mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>AS11CB</t>
+  </si>
+  <si>
     <t>NKK</t>
   </si>
   <si>
-    <t xml:space="preserve">LM7805CT </t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>926-LM7805CT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80-ESL107M016AC3AA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESL107M016AC3AA </t>
-  </si>
-  <si>
-    <t>kmet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESL106M100AE3AA </t>
-  </si>
-  <si>
-    <t>kimet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80-ESL106M100AE3AA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">610-PN2222A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Semiconductor </t>
-  </si>
-  <si>
-    <t>Adafruit</t>
-  </si>
-  <si>
-    <t>633-AS11BH</t>
-  </si>
-  <si>
-    <t>AS11BH</t>
-  </si>
-  <si>
-    <t>Feather M0</t>
-  </si>
-  <si>
-    <t>490-SJ1-2503A</t>
-  </si>
-  <si>
-    <t>SJ1-2503A</t>
-  </si>
-  <si>
-    <t>2.5 mm Camera Jack</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBR10U45SD1-T </t>
-  </si>
-  <si>
-    <t xml:space="preserve">621-SBR10U45SD1-T </t>
-  </si>
-  <si>
-    <t>Diodes Incorporated</t>
-  </si>
-  <si>
-    <t>DO-201AD-2</t>
-  </si>
-  <si>
-    <t>Avago</t>
-  </si>
-  <si>
-    <t>HLMP-1790</t>
-  </si>
-  <si>
-    <t>630-HLMP-1790</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>J12</t>
-  </si>
-  <si>
-    <t>Adafruit Bluefruit LE SPI Friend - Bluetooth Low Energy (BLE)</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x09_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>ILD74</t>
-  </si>
-  <si>
-    <t>782-ILD74</t>
-  </si>
-  <si>
-    <t>Vishay</t>
-  </si>
-  <si>
-    <t>485-3178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">485-2633 </t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>15K</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>660-MF1/4LCT52R510G</t>
-  </si>
-  <si>
-    <t>MF1/4LCT52R510G</t>
-  </si>
-  <si>
-    <t>HLMP-K150</t>
-  </si>
-  <si>
-    <t>630-HLMP-K150</t>
-  </si>
-  <si>
-    <t>PWR</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>amass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XT30U-M </t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/Document/3cbfa5cfa544d79584972dd5234a409e/XT30U%20SPEC.pdf</t>
-  </si>
-  <si>
-    <t>TLHK46Q1R2</t>
-  </si>
-  <si>
-    <t>78-TLHK46Q1R2</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>Focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">485-2886 </t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-14K7</t>
-  </si>
-  <si>
-    <t>HLMP-LG71-XZ0DD</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>5V on</t>
-  </si>
-  <si>
-    <t>Pwr sw</t>
-  </si>
-  <si>
-    <t>S103M47Z5UN63J7R</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>0.01 uf</t>
-  </si>
-  <si>
-    <t>594-S103M47Z5UN63J7R</t>
-  </si>
-  <si>
-    <t>Capacitor_THT:C_Disc_D7.5mm_W2.5mm_P5.00mm</t>
+    <t>633-AS11CB</t>
+  </si>
+  <si>
+    <t>IC1</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1399,13 +1405,13 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
         <v>96</v>
       </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -1422,13 +1428,13 @@
         <v>59</v>
       </c>
       <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
         <v>98</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>99</v>
-      </c>
-      <c r="F4" t="s">
-        <v>100</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
@@ -1442,16 +1448,16 @@
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
@@ -1465,16 +1471,16 @@
         <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
@@ -1482,50 +1488,50 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
         <v>111</v>
-      </c>
-      <c r="E7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" t="s">
         <v>149</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1536,13 +1542,13 @@
         <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
@@ -1559,10 +1565,10 @@
         <v>2886</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G11" t="s">
         <v>28</v>
@@ -1570,27 +1576,27 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
         <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
@@ -1607,10 +1613,10 @@
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -1800,10 +1806,10 @@
         <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
         <v>51</v>
@@ -1811,7 +1817,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>49</v>
@@ -1823,10 +1829,10 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
         <v>51</v>
@@ -1834,7 +1840,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>49</v>
@@ -1846,10 +1852,10 @@
         <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
         <v>51</v>
@@ -1883,7 +1889,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>31</v>
@@ -1926,7 +1932,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B28" s="2">
         <v>220</v>
@@ -1957,7 +1963,7 @@
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B30" s="2">
         <v>51</v>
@@ -1966,18 +1972,18 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
         <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B31" s="2">
         <v>51</v>
@@ -1986,27 +1992,27 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
         <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30">
@@ -2020,13 +2026,13 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="G33" t="s">
         <v>28</v>
@@ -2112,13 +2118,13 @@
         <v>69</v>
       </c>
       <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
         <v>92</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>93</v>
-      </c>
-      <c r="F37" t="s">
-        <v>94</v>
       </c>
       <c r="G37" t="s">
         <v>70</v>
@@ -2129,19 +2135,19 @@
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G38" t="s">
         <v>25</v>
@@ -2152,19 +2158,19 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G39" t="s">
         <v>25</v>
@@ -2172,79 +2178,119 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D40">
         <v>3178</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D41">
         <v>2633</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="D42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" t="s">
         <v>158</v>
-      </c>
-      <c r="E42" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="B45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" t="s">
         <v>158</v>
-      </c>
-      <c r="E43" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/CameraTriggerR2PCB/CameraTriggerR2MouserBOM.xlsx
+++ b/CameraTriggerR2PCB/CameraTriggerR2MouserBOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22935" windowHeight="10500"/>
+    <workbookView xWindow="11895" yWindow="-15" windowWidth="11940" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="CameraTrigger" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="179">
   <si>
     <t>Reference</t>
   </si>
@@ -172,15 +172,6 @@
     <t>http://www.fairchildsemi.com/ds/PN/PN2222A.pdf</t>
   </si>
   <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>feather short</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x12_P2.54mm_Vertical</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -376,9 +367,6 @@
     <t>Adafruit Bluefruit LE SPI Friend - Bluetooth Low Energy (BLE)</t>
   </si>
   <si>
-    <t>U7</t>
-  </si>
-  <si>
     <t>Connector_PinHeader_2.54mm:PinHeader_1x09_P2.54mm_Vertical</t>
   </si>
   <si>
@@ -457,9 +445,6 @@
     <t>Focus</t>
   </si>
   <si>
-    <t xml:space="preserve">485-2886 </t>
-  </si>
-  <si>
     <t>603-MF0207FTE52-14K7</t>
   </si>
   <si>
@@ -512,6 +497,60 @@
   </si>
   <si>
     <t>IC1</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>Ada2633</t>
+  </si>
+  <si>
+    <t>1x9 Header</t>
+  </si>
+  <si>
+    <t>633-M201101-BA</t>
+  </si>
+  <si>
+    <t>Toggle switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2011SS1W01-BA </t>
+  </si>
+  <si>
+    <t>Project Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">546-1591XXUSBK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1591XXUSBK </t>
+  </si>
+  <si>
+    <t>Hammond</t>
+  </si>
+  <si>
+    <t>Standoffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">728-FC4542-632-A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC4542-632-A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fascomp </t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
   </si>
 </sst>
 </file>
@@ -1339,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1365,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1382,13 +1421,13 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -1396,22 +1435,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -1419,22 +1458,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
@@ -1442,443 +1481,419 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11">
-        <v>2886</v>
+        <v>135</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>3178</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" t="s">
-        <v>7</v>
+        <v>99</v>
+      </c>
+      <c r="F17">
+        <v>2633</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
         <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
         <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
         <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
         <v>72</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
         <v>73</v>
       </c>
-      <c r="F21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" t="s">
-        <v>100</v>
-      </c>
       <c r="G23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
@@ -1886,414 +1901,531 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30">
+        <v>113</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="2">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
         <v>87</v>
       </c>
-      <c r="F30" t="s">
-        <v>132</v>
+      <c r="G30" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="2">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
         <v>87</v>
       </c>
-      <c r="F31" t="s">
-        <v>132</v>
+      <c r="G31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
       <c r="F32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30">
+        <v>85</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" t="s">
+    <row r="35" spans="1:7" ht="30">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="2">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" t="s">
         <v>84</v>
       </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" t="s">
-        <v>83</v>
-      </c>
       <c r="F35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="2">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" t="s">
         <v>84</v>
       </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" t="s">
-        <v>83</v>
-      </c>
       <c r="F36" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40">
-        <v>3178</v>
+        <v>22</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30">
+        <v>81</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41">
-        <v>2633</v>
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>79</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
-        <v>158</v>
+        <v>90</v>
+      </c>
+      <c r="G42" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F43" t="s">
-        <v>158</v>
+        <v>119</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F44" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>119</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30">
       <c r="A45" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" t="s">
-        <v>154</v>
+        <v>117</v>
+      </c>
+      <c r="D45">
+        <v>2633</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="C46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
         <v>158</v>
       </c>
+      <c r="F46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="C47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G45">
+    <sortCondition ref="A2:A45"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CameraTriggerR2PCB/CameraTriggerR2MouserBOM.xlsx
+++ b/CameraTriggerR2PCB/CameraTriggerR2MouserBOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="-15" windowWidth="11940" windowHeight="10590"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="23850" windowHeight="5280"/>
   </bookViews>
   <sheets>
     <sheet name="CameraTrigger" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="181">
   <si>
     <t>Reference</t>
   </si>
@@ -551,6 +551,12 @@
   </si>
   <si>
     <t>H4</t>
+  </si>
+  <si>
+    <t>Manf part no</t>
+  </si>
+  <si>
+    <t>Manf</t>
   </si>
 </sst>
 </file>
@@ -1380,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1403,6 +1409,12 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>180</v>
+      </c>
       <c r="F1" t="s">
         <v>71</v>
       </c>
